--- a/shortinstructors.xlsx
+++ b/shortinstructors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmins\Desktop\DreamsForSchools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suren\Desktop\Apurva\College\UCI\3rd_Year\Classes\INF117\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF62ED07-7869-4FA8-A671-62ED658A2F41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FC792E-6BD1-402D-A311-058CA800A4E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FE4359DA-9BED-4E27-8CE5-C94EA9C277EE}"/>
   </bookViews>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,8 +356,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{32139E83-7FC8-42F8-AA5D-2918E2D144FC}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
